--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/MoqFormula.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/MoqFormula.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\朱正义\source\repos\finance_back\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A8B834-EC6B-4304-A2EB-35F8C5B22CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830AA41B-8114-4DB6-909B-A4BC0F490ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="152">
   <si>
     <t>物料大类</t>
   </si>
@@ -492,6 +492,10 @@
       </rPr>
       <t>OQ的关系</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -908,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C137"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -998,7 +1002,7 @@
     </row>
     <row r="8" spans="1:3" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>143</v>
